--- a/data/excel/Policyworkflow.xlsx
+++ b/data/excel/Policyworkflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F8BCC-F349-4075-B302-F98ACA6485E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6F060-99DA-4911-ACFE-03A1EA8ADC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Laxmi</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>Guest User</t>
   </si>
   <si>
@@ -154,13 +151,16 @@
   </si>
   <si>
     <t>Guest Trip 5</t>
+  </si>
+  <si>
+    <t>Xchange@720</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,10 +261,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,7 +549,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +558,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -569,65 +576,65 @@
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -644,11 +651,11 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -706,11 +713,11 @@
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>37</v>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
@@ -734,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>27</v>
@@ -768,17 +775,17 @@
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
+      <c r="E4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -820,9 +827,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{33896291-AD0C-40CD-8FAA-B3AA9EF57581}"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="Admin@123" xr:uid="{E7767919-9399-4CC2-8F38-975B5C482151}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{ACE09D32-42E0-4EAE-A2D1-ABE29963EB80}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{F6E3531B-AB21-4006-BE21-BBE1967A6AC1}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="Xchange@720" xr:uid="{186C3DE0-565F-4303-8642-ED21BA204DEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/Policyworkflow.xlsx
+++ b/data/excel/Policyworkflow.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6F060-99DA-4911-ACFE-03A1EA8ADC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Flight" sheetId="4" r:id="rId3"/>
+    <sheet name="Hotel" sheetId="5" r:id="rId4"/>
+    <sheet name="Car" sheetId="6" r:id="rId5"/>
+    <sheet name="Car1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="83">
   <si>
     <t>Source</t>
   </si>
@@ -154,12 +158,132 @@
   </si>
   <si>
     <t>Xchange@720</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Prince@1234</t>
+  </si>
+  <si>
+    <t>Business Trip Car</t>
+  </si>
+  <si>
+    <t>Travelpurpose</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>RuleAppliedOn</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>SelectQty</t>
+  </si>
+  <si>
+    <t>SelectFromList</t>
+  </si>
+  <si>
+    <t>Mahindra And Mahindra</t>
+  </si>
+  <si>
+    <t>policy criteria</t>
+  </si>
+  <si>
+    <t>CriteriaQty</t>
+  </si>
+  <si>
+    <t>CriteriaName</t>
+  </si>
+  <si>
+    <t>Airline,Booking Date,Trip Date,Corporate,Destination,Weekdays,Market Type</t>
+  </si>
+  <si>
+    <t>Origin,Destination,Cost Range,Booking Date,Trip Date,Market Type</t>
+  </si>
+  <si>
+    <t>OriginFor</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>India,China</t>
+  </si>
+  <si>
+    <t>Delhi-India</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>Zone Qty</t>
+  </si>
+  <si>
+    <t>Region Qty</t>
+  </si>
+  <si>
+    <t>City Qty</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>DestinationFor</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>BookDateFrom</t>
+  </si>
+  <si>
+    <t>BookDateTo</t>
+  </si>
+  <si>
+    <t>11-Feb-2022</t>
+  </si>
+  <si>
+    <t>21-Feb-2023</t>
+  </si>
+  <si>
+    <t>TripDateFrom</t>
+  </si>
+  <si>
+    <t>TripDateTo</t>
+  </si>
+  <si>
+    <t>Origin,Destination,Cost Range,Market Type</t>
+  </si>
+  <si>
+    <t>MarketType</t>
+  </si>
+  <si>
+    <t>Domestic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,12 +375,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,6 +406,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,8 +973,1016 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{33896291-AD0C-40CD-8FAA-B3AA9EF57581}"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="Xchange@720" xr:uid="{186C3DE0-565F-4303-8642-ED21BA204DEE}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="Xchange@720"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"QLABS12345,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Business,Family,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Flight,Hotel,Car,Expense"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"Airline Criteria,Origin,Destination,Cost Range,Booking Date,Trip Date,Market Type"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="10">
+        <v>6</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Flight,Hotel,Car,Expense"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Business,Family,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"QLABS12345,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="10">
+        <v>6</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Flight,Hotel,Car,Expense"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Business,Family,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"QLABS12345,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="10">
+        <v>6</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="10">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="10">
+        <v>2</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="10">
+        <v>1</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Flight,Hotel,Car,Expense"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Business,Family,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"QLABS12345,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"Zone,Region,Country,City,Airport"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+      <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="10">
+        <v>4</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="10">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="10">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="10">
+        <v>1</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>1500</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2">
+      <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2">
+      <formula1>"Zone,Region,Country,City"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"QLABS12345,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Business,Family,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Flight,Hotel,Car,Expense"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/Policyworkflow.xlsx
+++ b/data/excel/Policyworkflow.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DF478-F546-4BEE-BFE8-D13209857609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -283,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -411,7 +412,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -973,15 +973,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="Xchange@720"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="Xchange@720" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1152,37 +1152,37 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"QLABS12345,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Business,Family,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Flight,Hotel,Car,Expense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"Airline Criteria,Origin,Destination,Cost Range,Booking Date,Trip Date,Market Type"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1297,34 +1297,34 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Flight,Hotel,Car,Expense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Business,Family,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"QLABS12345,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1439,34 +1439,34 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Flight,Hotel,Car,Expense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Business,Family,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"QLABS12345,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1641,44 +1641,44 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Flight,Hotel,Car,Expense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Business,Family,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"QLABS12345,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>"Zone,Region,Country,City,Airport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{00000000-0002-0000-0400-000007000000}">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,42 +1947,42 @@
       <c r="AL2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Z2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Africa,Asia,Australia &amp; New Zealand,Carribean,Central America,Europe,Middle East,North America,Pacific Islands,South America"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Zone,Region,Country,City"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123,Prince@1234"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"Shubham1,Shubham,rsudesh15,Prince"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>"QLABS12345,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>"Business,Family,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>"Flight,Hotel,Car,Expense"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>"Corporate,Corporate-Branch,Department,Designation,Grade,Traveler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="E2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
